--- a/mysql事务隔离级别.xlsx
+++ b/mysql事务隔离级别.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>脏读</t>
   </si>
@@ -555,7 +555,104 @@
   </si>
   <si>
     <r>
-      <t>mysql&gt; select age from demo_user where id = '222'</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 将事务隔离级别更改为可重复读</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF9680D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mysql&gt; set session transaction isolation level repeatable read;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query OK, 0 rows affected (0.00 sec)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF9680D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql&gt; select @@session.tx_isolation;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+------------------------+
+| @@session.tx_isolation |
++------------------------+
+| REPEATABLE-READ        |
++------------------------+
+1 row in set, 1 warning (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt; select age from demo_user where id = '222';</t>
     </r>
     <r>
       <rPr>
@@ -576,7 +673,7 @@
   </si>
   <si>
     <r>
-      <t>mysql&gt; select age from demo_user where id = '222';</t>
+      <t>mysql&gt; update demo_user set age = 19 where id = '222';</t>
     </r>
     <r>
       <rPr>
@@ -587,12 +684,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+------+
-| age  |
-+------+
-|   18 |
-+------+
-1 row in set (0.00 sec)</t>
+Query OK, 1 row affected (0.00 sec)
+Rows matched: 1  Changed: 1  Warnings: 0</t>
     </r>
   </si>
   <si>
@@ -714,12 +807,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -727,8 +896,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,100 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,13 +951,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -893,55 +986,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,97 +1148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,21 +1196,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1134,11 +1212,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,6 +1223,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1167,11 +1263,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,15 +1292,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1207,145 +1300,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,10 +1973,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2019,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="2:3">
@@ -2032,29 +2125,33 @@
     </row>
     <row r="26" ht="100.8" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" ht="43.2" spans="2:3">
       <c r="B27" s="4"/>
       <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" ht="100.8" spans="2:3">
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" ht="28.8" spans="2:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="2:3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="100.8" spans="2:3">
       <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" ht="28.8" spans="2:3">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2095,10 +2192,10 @@
     </row>
     <row r="2" ht="172.8" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>

--- a/mysql事务隔离级别.xlsx
+++ b/mysql事务隔离级别.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脏读" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>脏读</t>
   </si>
@@ -466,6 +466,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t># 将事务隔离级别更改为可重复读</t>
     </r>
     <r>
@@ -563,141 +571,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t># 将事务隔离级别更改为可重复读</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF9680D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-mysql&gt; set session transaction isolation level repeatable read;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query OK, 0 rows affected (0.00 sec)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF9680D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql&gt; select @@session.tx_isolation;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+------------------------+
-| @@session.tx_isolation |
-+------------------------+
-| REPEATABLE-READ        |
-+------------------------+
-1 row in set, 1 warning (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt; select age from demo_user where id = '222';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+------+
-| age  |
-+------+
-|   18 |
-+------+
-1 row in set (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt; update demo_user set age = 19 where id = '222';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Query OK, 1 row affected (0.00 sec)
-Rows matched: 1  Changed: 1  Warnings: 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t># 将事务隔离级别更改为未提交</t>
     </r>
     <r>
@@ -760,6 +633,83 @@
 | READ-UNCOMMITTED       |
 +------------------------+
 1 row in set, 1 warning (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2`;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++----------+
+| COUNT(1) |
++----------+
+| 19919335 |
++----------+
+1 row in set (6.83 sec)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2` WHERE deleted = 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+----------+
+| COUNT(1) |
++----------+
+| 19919255 |
++----------+
+1 row in set (8.33 sec)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql&gt; SELECT * FROM `sales_zowee_production_order2` limit 1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++----------------+--------------------+---------+
+| no             | contract_no        | deleted |
++----------------+--------------------+---------+
+| 20150701002795 | 粤南湾G1201302C    |       0 |
++----------------+--------------------+---------+
+1 row in set (0.00 sec)</t>
     </r>
   </si>
 </sst>
@@ -783,14 +733,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
       <name val="宋体"/>
@@ -806,6 +748,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -813,8 +770,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +795,68 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,98 +870,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -935,13 +878,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -951,6 +887,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -974,13 +924,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9FBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBFA"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,181 +1002,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,6 +1145,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1210,20 +1178,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,21 +1209,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,10 +1250,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,16 +1262,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,132 +1280,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1828,23 +1781,23 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1806,7 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="29" customHeight="1" spans="2:3">
       <c r="B5" s="3" t="s">
@@ -1869,23 +1822,23 @@
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="2:3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="2:3">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1894,7 +1847,7 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="28.8" spans="2:3">
       <c r="B14" s="3"/>
@@ -1920,31 +1873,31 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="172.8" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="2:3">
-      <c r="B23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1953,7 +1906,7 @@
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="28.8" spans="2:3">
       <c r="B25" s="3" t="s">
@@ -1975,7 +1928,7 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1992,18 +1945,18 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2014,13 +1967,13 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" ht="43.2" spans="2:3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="2:3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +1982,7 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="28.8" spans="2:3">
       <c r="B8" s="3" t="s">
@@ -2043,18 +1996,18 @@
       </c>
     </row>
     <row r="13" ht="15.6" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="2:3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2065,16 +2018,16 @@
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="28.8" spans="2:3">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="115.2" spans="2:3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" ht="28.8" spans="2:3">
       <c r="B18" s="3" t="s">
@@ -2100,43 +2053,43 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="2:3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="158.4" spans="2:3">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="2:3">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" ht="43.2" spans="2:3">
-      <c r="B27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:3">
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2098,7 @@
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" ht="28.8" spans="2:3">
       <c r="B30" s="3" t="s">
@@ -2163,56 +2116,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="57.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="60.7777777777778" customWidth="1"/>
-    <col min="5" max="6" width="57.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="152.666666666667" customWidth="1"/>
+    <col min="4" max="6" width="81.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:6">
+    <row r="1" ht="302.4" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="172.8" spans="2:6">
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="100.8" spans="2:6">
-      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="2:2">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mysql事务隔离级别.xlsx
+++ b/mysql事务隔离级别.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="10308" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脏读" sheetId="1" r:id="rId1"/>
     <sheet name="不可重复读" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="幻读" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>脏读</t>
   </si>
@@ -368,15 +368,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql&gt; select age from demo_user where id = '222' lock in share mode;;</t>
+      <t>mysql&gt; select age from demo_user where id = '222' lock in share mode;</t>
     </r>
     <r>
       <rPr>
@@ -562,6 +554,24 @@
     </r>
   </si>
   <si>
+    <t>session_1
+session_2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># 将事务隔离级别更改为已提交
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql&gt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -571,7 +581,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t># 将事务隔离级别更改为未提交</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -582,13 +592,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-mysql&gt; set session transaction isolation level read uncommitted;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.5"/>
+      <t>set session transaction isolation level read committed;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -604,40 +614,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Query OK, 0 rows affected (0.00 sec)
+      <t>Query OK, 0 rows affected (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> select @@session.tx_isolation;
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql&gt; select @@session.tx_isolation;</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-+------------------------+
+      <t>+------------------------+
 | @@session.tx_isolation |
 +------------------------+
-| READ-UNCOMMITTED       |
+| READ-COMMITTED         |
 +------------------------+
 1 row in set, 1 warning (0.00 sec)</t>
     </r>
   </si>
   <si>
     <r>
-      <t>mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2`;</t>
+      <t xml:space="preserve"># 给age字段加上索引
+</t>
     </r>
     <r>
       <rPr>
@@ -647,17 +662,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-+----------+
-| COUNT(1) |
-+----------+
-| 19919335 |
-+----------+
-1 row in set (6.83 sec)
+      <t>mysql&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTER TABLE `github_demo`.`demo_user` ADD INDEX `idx_age` (`age`);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query OK, 0 rows affected (0.03 sec)
+Records: 0  Duplicates: 0  Warnings: 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt;</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="9" tint="-0.25"/>
@@ -665,35 +722,112 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2` WHERE deleted = 0;
+      <t xml:space="preserve"> show index from demo_user;
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
+| Table     | Non_unique | Key_name  | Seq_in_index | Column_name | Collation | Cardinality | Sub_part | Packed | Null | Index_type | Comment | Index_comment |
++-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
+| demo_user |          0 | PRIMARY   |            1 | id          | A         |           8 |     NULL | NULL   |      | BTREE      |         |               |
+| demo_user |          1 | idx_age   |            1 | age         | A         |           4 |     NULL | NULL   | YES  | BTREE      |         |               |
++-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
+4 rows in set (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <t>幻读</t>
+  </si>
+  <si>
+    <r>
+      <t># 开启事务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mysql&gt; set autocommit = 0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">+----------+
-| COUNT(1) |
-+----------+
-| 19919255 |
-+----------+
-1 row in set (8.33 sec)
+      <t xml:space="preserve">
+Query OK, 0 rows affected (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt; select id,name,age from demo_user where age = 18;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++----------------------------------+--------+------+
+| id                               | name   | age  |
++----------------------------------+--------+------+
+| 111                              | zzs001 |   18 |
+| 222                              | zzs002 |   18 |
++----------------------------------+--------+------+
+2 rows in set (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt; INSERT INTO `github_demo`.`demo_user` VALUES ('333', 'zzs003', 0, 18, '2021-05-11 14:10:57' , '2021-05-11 14:10:57', 0, '188******29');</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Query OK, 1 row affected (0.01 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysql&gt; commit;
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql&gt; SELECT * FROM `sales_zowee_production_order2` limit 1;</t>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query OK, 0 rows affected (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mysql&gt; select id,name,age from demo_user where age = 18;</t>
     </r>
     <r>
       <rPr>
@@ -704,12 +838,106 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-+----------------+--------------------+---------+
-| no             | contract_no        | deleted |
-+----------------+--------------------+---------+
-| 20150701002795 | 粤南湾G1201302C    |       0 |
-+----------------+--------------------+---------+
-1 row in set (0.00 sec)</t>
++----------------------------------+--------+------+
+| id                               | name   | age  |
++----------------------------------+--------+------+
+| 111                              | zzs001 |   18 |
+| 222                              | zzs002 |   18 |
+| 333                              | zzs003 |   18 |
++----------------------------------+--------+------+
+3 rows in set (0.00 sec)</t>
+    </r>
+  </si>
+  <si>
+    <t>可重复读隔离级别下解决幻读</t>
+  </si>
+  <si>
+    <r>
+      <t># 将事务隔离级别更改为已提交</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF9680D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mysql&gt; set session transaction isolation level repeatable read;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Query OK, 0 rows affected (0.00 sec)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFF9680D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql&gt; select @@session.tx_isolation;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+------------------------+
+| @@session.tx_isolation |
++------------------------+
+| REPEATABLE-READ         |
++------------------------+
+1 row in set, 1 warning (0.00 sec)</t>
     </r>
   </si>
 </sst>
@@ -718,14 +946,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,9 +984,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,6 +1013,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -771,7 +1081,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -794,69 +1104,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,10 +1119,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,27 +1131,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,13 +1151,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF9FBFA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,191 +1343,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1150,30 +1403,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,13 +1431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,6 +1457,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,7 +1506,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,153 +1515,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1767,8 +2038,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1781,38 +2052,38 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" ht="29" customHeight="1" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1822,50 +2093,50 @@
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="2:3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="2:3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" ht="28.8" spans="2:3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="115.2" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" ht="28.8" spans="2:3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
@@ -1873,46 +2144,46 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="172.8" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="2:3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="2:3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="2:3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" ht="28.8" spans="2:3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1928,8 +2199,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1945,50 +2216,50 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" ht="43.2" spans="2:3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="2:3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" ht="28.8" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
@@ -1996,54 +2267,54 @@
       </c>
     </row>
     <row r="13" ht="15.6" spans="2:3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="115.2" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" ht="28.8" spans="2:3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="115.2" spans="2:3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" ht="28.8" spans="2:3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" ht="43.2" spans="2:3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="2:3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2053,58 +2324,58 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="158.4" spans="2:3">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="2:3">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="2:3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" ht="43.2" spans="2:3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" ht="100.8" spans="2:3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" ht="28.8" spans="2:3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,33 +2387,166 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C2"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="57.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="152.666666666667" customWidth="1"/>
-    <col min="4" max="6" width="81.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="64.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="57.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="302.4" spans="2:3">
+    <row r="1" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="1" ht="62" customHeight="1" spans="2:3">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" ht="100.8" spans="2:2">
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="1" ht="115" customHeight="1" spans="2:3">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="1" ht="139" customHeight="1" spans="2:3">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" customFormat="1" ht="93" customHeight="1"/>
+    <row r="7" customFormat="1" ht="29" customHeight="1"/>
+    <row r="8" customFormat="1" ht="19" customHeight="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="43.2" spans="2:3">
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="143" customHeight="1" spans="2:3">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" customFormat="1" ht="61" customHeight="1" spans="2:3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="28.8" spans="2:3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="163" customHeight="1" spans="2:3">
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" customFormat="1" ht="29" customHeight="1" spans="2:3">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15.6" spans="2:3">
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="175" customHeight="1" spans="2:3">
+      <c r="B22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="132" customHeight="1" spans="2:3">
+      <c r="B23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" customFormat="1" ht="57.6" spans="2:3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="28.8" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="129" customHeight="1" spans="2:3">
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="2:3">
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/mysql事务隔离级别.xlsx
+++ b/mysql事务隔离级别.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10308" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脏读" sheetId="1" r:id="rId1"/>
     <sheet name="不可重复读" sheetId="2" r:id="rId2"/>
-    <sheet name="幻读" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>脏读</t>
   </si>
@@ -368,7 +368,15 @@
   </si>
   <si>
     <r>
-      <t>mysql&gt; select age from demo_user where id = '222' lock in share mode;</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql&gt; select age from demo_user where id = '222' lock in share mode;;</t>
     </r>
     <r>
       <rPr>
@@ -554,12 +562,38 @@
     </r>
   </si>
   <si>
-    <t>session_1
-session_2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># 将事务隔离级别更改为已提交
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 将事务隔离级别更改为未提交</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mysql&gt; set session transaction isolation level read uncommitted;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -570,18 +604,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mysql&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Query OK, 0 rows affected (0.00 sec)
+</t>
     </r>
     <r>
       <rPr>
@@ -592,19 +616,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>set session transaction isolation level read committed;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>mysql&gt; select @@session.tx_isolation;</t>
     </r>
     <r>
       <rPr>
@@ -614,66 +626,63 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Query OK, 0 rows affected (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> select @@session.tx_isolation;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+------------------------+
+      <t xml:space="preserve">
++------------------------+
 | @@session.tx_isolation |
 +------------------------+
-| READ-COMMITTED         |
+| READ-UNCOMMITTED       |
 +------------------------+
 1 row in set, 1 warning (0.00 sec)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># 给age字段加上索引
+      <t>mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2`;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++----------+
+| COUNT(1) |
++----------+
+| 19919335 |
++----------+
+1 row in set (6.83 sec)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mysql&gt; SELECT COUNT(1) FROM `sales_zowee_production_order2` WHERE deleted = 0;
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>mysql&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">+----------+
+| COUNT(1) |
++----------+
+| 19919255 |
++----------+
+1 row in set (8.33 sec)
+</t>
     </r>
     <r>
       <rPr>
@@ -684,81 +693,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ALTER TABLE `github_demo`.`demo_user` ADD INDEX `idx_age` (`age`);</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query OK, 0 rows affected (0.03 sec)
-Records: 0  Duplicates: 0  Warnings: 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> show index from demo_user;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
-| Table     | Non_unique | Key_name  | Seq_in_index | Column_name | Collation | Cardinality | Sub_part | Packed | Null | Index_type | Comment | Index_comment |
-+-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
-| demo_user |          0 | PRIMARY   |            1 | id          | A         |           8 |     NULL | NULL   |      | BTREE      |         |               |
-| demo_user |          1 | idx_age   |            1 | age         | A         |           4 |     NULL | NULL   | YES  | BTREE      |         |               |
-+-----------+------------+-----------+--------------+-------------+-----------+-------------+----------+--------+------+------------+---------+---------------+
-4 rows in set (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <t>幻读</t>
-  </si>
-  <si>
-    <r>
-      <t># 开启事务</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-mysql&gt; set autocommit = 0;</t>
+      <t>mysql&gt; SELECT * FROM `sales_zowee_production_order2` limit 1;</t>
     </r>
     <r>
       <rPr>
@@ -769,175 +704,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Query OK, 0 rows affected (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt; select id,name,age from demo_user where age = 18;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+----------------------------------+--------+------+
-| id                               | name   | age  |
-+----------------------------------+--------+------+
-| 111                              | zzs001 |   18 |
-| 222                              | zzs002 |   18 |
-+----------------------------------+--------+------+
-2 rows in set (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt; INSERT INTO `github_demo`.`demo_user` VALUES ('333', 'zzs003', 0, 18, '2021-05-11 14:10:57' , '2021-05-11 14:10:57', 0, '188******29');</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Query OK, 1 row affected (0.01 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">mysql&gt; commit;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query OK, 0 rows affected (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mysql&gt; select id,name,age from demo_user where age = 18;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+----------------------------------+--------+------+
-| id                               | name   | age  |
-+----------------------------------+--------+------+
-| 111                              | zzs001 |   18 |
-| 222                              | zzs002 |   18 |
-| 333                              | zzs003 |   18 |
-+----------------------------------+--------+------+
-3 rows in set (0.00 sec)</t>
-    </r>
-  </si>
-  <si>
-    <t>可重复读隔离级别下解决幻读</t>
-  </si>
-  <si>
-    <r>
-      <t># 将事务隔离级别更改为已提交</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF9680D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-mysql&gt; set session transaction isolation level repeatable read;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Query OK, 0 rows affected (0.00 sec)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFF9680D"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mysql&gt; select @@session.tx_isolation;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+------------------------+
-| @@session.tx_isolation |
-+------------------------+
-| REPEATABLE-READ         |
-+------------------------+
-1 row in set, 1 warning (0.00 sec)</t>
++----------------+--------------------+---------+
+| no             | contract_no        | deleted |
++----------------+--------------------+---------+
+| 20150701002795 | 粤南湾G1201302C    |       0 |
++----------------+--------------------+---------+
+1 row in set (0.00 sec)</t>
     </r>
   </si>
 </sst>
@@ -946,9 +718,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -961,14 +733,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
       <name val="宋体"/>
@@ -984,9 +748,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,7 +779,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,6 +815,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1035,8 +846,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,82 +878,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1134,6 +886,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFF9680D"/>
@@ -1151,13 +924,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9FBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9FBFA"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,43 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,169 +1116,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1403,6 +1150,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,17 +1202,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,26 +1224,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,7 +1253,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,171 +1262,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2038,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2052,38 +1781,38 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="2:3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="29" customHeight="1" spans="2:3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2093,50 +1822,50 @@
       </c>
     </row>
     <row r="10" ht="15.6" spans="2:3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="2:3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="2:3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="28.8" spans="2:3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="115.2" spans="2:3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="28.8" spans="2:3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
@@ -2144,46 +1873,46 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="2:3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" ht="172.8" spans="2:3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="2:3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" ht="100.8" spans="2:3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="28.8" spans="2:3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2199,8 +1928,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2216,50 +1945,50 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="2:3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="2:3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" ht="43.2" spans="2:3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="2:3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="100.8" spans="2:3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="28.8" spans="2:3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
@@ -2267,54 +1996,54 @@
       </c>
     </row>
     <row r="13" ht="15.6" spans="2:3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="2:3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="115.2" spans="2:3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="28.8" spans="2:3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="115.2" spans="2:3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" ht="28.8" spans="2:3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" ht="43.2" spans="2:3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2324,58 +2053,58 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="2:3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="158.4" spans="2:3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="2:3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" ht="100.8" spans="2:3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" ht="43.2" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="2:3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" ht="100.8" spans="2:3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" ht="28.8" spans="2:3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,166 +2116,33 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="64.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="57.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="57.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="152.666666666667" customWidth="1"/>
+    <col min="4" max="6" width="81.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="19" customHeight="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" ht="302.4" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" customFormat="1" ht="62" customHeight="1" spans="2:3">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" customFormat="1" ht="115" customHeight="1" spans="2:3">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" customFormat="1" ht="63" customHeight="1" spans="2:3">
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" customFormat="1" ht="139" customHeight="1" spans="2:3">
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="1" ht="93" customHeight="1"/>
-    <row r="7" customFormat="1" ht="29" customHeight="1"/>
-    <row r="8" customFormat="1" ht="19" customHeight="1" spans="1:3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="43.2" spans="2:3">
-      <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="143" customHeight="1" spans="2:3">
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" customFormat="1" ht="61" customHeight="1" spans="2:3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="28.8" spans="2:3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="163" customHeight="1" spans="2:3">
-      <c r="B13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" customFormat="1" ht="29" customHeight="1" spans="2:3">
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1" spans="1:1">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="15.6" spans="2:3">
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="175" customHeight="1" spans="2:3">
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="132" customHeight="1" spans="2:3">
-      <c r="B23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" customFormat="1" ht="57.6" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" ht="28.8" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" ht="129" customHeight="1" spans="2:3">
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="2:3">
-      <c r="B27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
